--- a/medicine/Pharmacie/Ponésimod/Ponésimod.xlsx
+++ b/medicine/Pharmacie/Ponésimod/Ponésimod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pon%C3%A9simod</t>
+          <t>Ponésimod</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ponésimod est un modulateur des récepteurs à la sphingosine-1-phosphate de type 1 (S1PR1) et est en cours de test dans la sclérose en plaques et le psoriasis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pon%C3%A9simod</t>
+          <t>Ponésimod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par la stimulation du S1PR1, il bloque la sortie des lymphocytes des organes lymphoïdes[1] de manière réversible[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par la stimulation du S1PR1, il bloque la sortie des lymphocytes des organes lymphoïdes de manière réversible.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pon%C3%A9simod</t>
+          <t>Ponésimod</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné par voie orale, sa concentration sanguine maximale est atteinte en moins de 4 heures avec une demi-vie autour de 24 heures[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné par voie orale, sa concentration sanguine maximale est atteinte en moins de 4 heures avec une demi-vie autour de 24 heures.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pon%C3%A9simod</t>
+          <t>Ponésimod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut donner un ralentissement de la fréquence cardiaque (bradycardie)[4], une dyspnée, une perturbation du bilan hépatique, des vertiges[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut donner un ralentissement de la fréquence cardiaque (bradycardie), une dyspnée, une perturbation du bilan hépatique, des vertiges.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pon%C3%A9simod</t>
+          <t>Ponésimod</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une certaine efficacité dans le psoriasis[5].
-Dans la sclérose en plaques, il augmente le délai entre les récidives et diminue l'atteinte sur l'IRM cérébrale[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une certaine efficacité dans le psoriasis.
+Dans la sclérose en plaques, il augmente le délai entre les récidives et diminue l'atteinte sur l'IRM cérébrale.
 </t>
         </is>
       </c>
